--- a/master_fille_kk.xlsx
+++ b/master_fille_kk.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>work /summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dailyRepoert with exe </t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45063</v>
+        <v>45099</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
